--- a/constructive-method/solutions/Data_80_Salidas_composición_zonas_homogéneas.xlsx_nearest_neighbor_minimize_avg_time.xlsx
+++ b/constructive-method/solutions/Data_80_Salidas_composición_zonas_homogéneas.xlsx_nearest_neighbor_minimize_avg_time.xlsx
@@ -460,11 +460,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Z1</t>
+          <t>Z4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>696.5891934263165</v>
+        <v>527.2300789274517</v>
       </c>
     </row>
   </sheetData>
@@ -518,7 +518,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S011</t>
+          <t>S021</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S002</t>
+          <t>S041</t>
         </is>
       </c>
     </row>
@@ -542,7 +542,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S012</t>
+          <t>S061</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>S003</t>
+          <t>S071</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>S013</t>
+          <t>S051</t>
         </is>
       </c>
     </row>
@@ -578,31 +578,31 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>S004</t>
+          <t>S011</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Pedido_12</t>
+          <t>Pedido_45</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>S014</t>
+          <t>S031</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Pedido_45</t>
+          <t>Pedido_12</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>S005</t>
+          <t>S062</t>
         </is>
       </c>
     </row>
@@ -614,19 +614,19 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>S015</t>
+          <t>S002</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Pedido_26</t>
+          <t>Pedido_76</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>S006</t>
+          <t>S042</t>
         </is>
       </c>
     </row>
@@ -638,19 +638,19 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>S016</t>
+          <t>S022</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Pedido_76</t>
+          <t>Pedido_26</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>S007</t>
+          <t>S072</t>
         </is>
       </c>
     </row>
@@ -662,7 +662,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>S017</t>
+          <t>S052</t>
         </is>
       </c>
     </row>
@@ -674,103 +674,103 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>S008</t>
+          <t>S012</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Pedido_20</t>
+          <t>Pedido_64</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>S018</t>
+          <t>S032</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Pedido_37</t>
+          <t>Pedido_20</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>S009</t>
+          <t>S003</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Pedido_64</t>
+          <t>Pedido_37</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>S019</t>
+          <t>S043</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Pedido_15</t>
+          <t>Pedido_33</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>S010</t>
+          <t>S063</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Pedido_21</t>
+          <t>Pedido_47</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>S020</t>
+          <t>S023</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Pedido_33</t>
+          <t>Pedido_71</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>S021</t>
+          <t>S053</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Pedido_47</t>
+          <t>Pedido_21</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>S031</t>
+          <t>S033</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Pedido_71</t>
+          <t>Pedido_15</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>S022</t>
+          <t>S013</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>S032</t>
+          <t>S073</t>
         </is>
       </c>
     </row>
@@ -794,31 +794,31 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>S023</t>
+          <t>S024</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Pedido_13</t>
+          <t>Pedido_78</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>S033</t>
+          <t>S044</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Pedido_78</t>
+          <t>Pedido_13</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>S024</t>
+          <t>S004</t>
         </is>
       </c>
     </row>
@@ -830,7 +830,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>S034</t>
+          <t>S064</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>S025</t>
+          <t>S054</t>
         </is>
       </c>
     </row>
@@ -854,55 +854,55 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>S035</t>
+          <t>S034</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Pedido_6</t>
+          <t>Pedido_35</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>S026</t>
+          <t>S014</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Pedido_35</t>
+          <t>Pedido_6</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>S036</t>
+          <t>S074</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Pedido_4</t>
+          <t>Pedido_52</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>S027</t>
+          <t>S045</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Pedido_25</t>
+          <t>Pedido_4</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>S037</t>
+          <t>S025</t>
         </is>
       </c>
     </row>
@@ -914,31 +914,31 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>S028</t>
+          <t>S005</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Pedido_52</t>
+          <t>Pedido_80</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>S038</t>
+          <t>S065</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Pedido_80</t>
+          <t>Pedido_25</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>S029</t>
+          <t>S055</t>
         </is>
       </c>
     </row>
@@ -950,7 +950,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>S039</t>
+          <t>S035</t>
         </is>
       </c>
     </row>
@@ -962,31 +962,31 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>S030</t>
+          <t>S075</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Pedido_8</t>
+          <t>Pedido_77</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>S040</t>
+          <t>S015</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Pedido_77</t>
+          <t>Pedido_8</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>S041</t>
+          <t>S046</t>
         </is>
       </c>
     </row>
@@ -998,31 +998,31 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>S051</t>
+          <t>S006</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Pedido_23</t>
+          <t>Pedido_39</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>S042</t>
+          <t>S026</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Pedido_39</t>
+          <t>Pedido_23</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>S052</t>
+          <t>S066</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>S043</t>
+          <t>S056</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>S053</t>
+          <t>S016</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>S044</t>
+          <t>S036</t>
         </is>
       </c>
     </row>
@@ -1070,31 +1070,31 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>S054</t>
+          <t>S076</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Pedido_51</t>
+          <t>Pedido_53</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>S045</t>
+          <t>S047</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Pedido_53</t>
+          <t>Pedido_51</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>S055</t>
+          <t>S027</t>
         </is>
       </c>
     </row>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>S046</t>
+          <t>S007</t>
         </is>
       </c>
     </row>
@@ -1118,31 +1118,31 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>S056</t>
+          <t>S067</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Pedido_18</t>
+          <t>Pedido_55</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>S047</t>
+          <t>S057</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Pedido_55</t>
+          <t>Pedido_18</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>S057</t>
+          <t>S037</t>
         </is>
       </c>
     </row>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>S048</t>
+          <t>S017</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>S058</t>
+          <t>S077</t>
         </is>
       </c>
     </row>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>S049</t>
+          <t>S048</t>
         </is>
       </c>
     </row>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>S059</t>
+          <t>S008</t>
         </is>
       </c>
     </row>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>S050</t>
+          <t>S028</t>
         </is>
       </c>
     </row>
@@ -1214,55 +1214,55 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>S060</t>
+          <t>S068</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Pedido_54</t>
+          <t>Pedido_70</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>S061</t>
+          <t>S018</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Pedido_70</t>
+          <t>Pedido_54</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>S071</t>
+          <t>S058</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Pedido_40</t>
+          <t>Pedido_67</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>S062</t>
+          <t>S038</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Pedido_67</t>
+          <t>Pedido_40</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>S072</t>
+          <t>S078</t>
         </is>
       </c>
     </row>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>S063</t>
+          <t>S009</t>
         </is>
       </c>
     </row>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>S073</t>
+          <t>S049</t>
         </is>
       </c>
     </row>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>S064</t>
+          <t>S029</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>S074</t>
+          <t>S069</t>
         </is>
       </c>
     </row>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>S065</t>
+          <t>S059</t>
         </is>
       </c>
     </row>
@@ -1334,43 +1334,43 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>S075</t>
+          <t>S019</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Pedido_62</t>
+          <t>Pedido_66</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>S066</t>
+          <t>S039</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Pedido_63</t>
+          <t>Pedido_62</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>S076</t>
+          <t>S079</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Pedido_66</t>
+          <t>Pedido_63</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>S067</t>
+          <t>S010</t>
         </is>
       </c>
     </row>
@@ -1382,31 +1382,31 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>S077</t>
+          <t>S050</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Pedido_38</t>
+          <t>Pedido_61</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>S068</t>
+          <t>S030</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Pedido_61</t>
+          <t>Pedido_38</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>S078</t>
+          <t>S070</t>
         </is>
       </c>
     </row>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>S069</t>
+          <t>S020</t>
         </is>
       </c>
     </row>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>S079</t>
+          <t>S060</t>
         </is>
       </c>
     </row>
@@ -1442,7 +1442,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>S070</t>
+          <t>S040</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>696.5891934263165</v>
+        <v>516.402346199589</v>
       </c>
     </row>
     <row r="3">
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>598.9019731862904</v>
+        <v>526.3008487404044</v>
       </c>
     </row>
     <row r="4">
@@ -1516,7 +1516,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>503.343247918694</v>
+        <v>516.5745972537571</v>
       </c>
     </row>
     <row r="5">
@@ -1526,7 +1526,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>326.1847767326199</v>
+        <v>527.2300789274517</v>
       </c>
     </row>
   </sheetData>
